--- a/docs/画面項目定義書/security_group/security_group_dashboard.xlsx
+++ b/docs/画面項目定義書/security_group/security_group_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\security_group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895958CF-E31A-4266-81F0-56A5F0EBAE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8FE2E8-DE96-40A7-ABD8-74DDDA29A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="利用者管理ダッシュボード" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>.html</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>一覧表示タイトル</t>
     <rPh sb="0" eb="2">
       <t>イチラン</t>
@@ -251,16 +247,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>セキュリティグループ追加モーダルへ遷移</t>
-    <rPh sb="10" eb="12">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>繰り返しで表示、押下時セキュリティグループ編集モーダルへ遷移</t>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
@@ -342,29 +328,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>セキュリティグループを取得し、繰り返しで表示
-・セキュリティグループ詳細画面へ遷移</t>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="38">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>セキュリティグループを取得し、繰り返しで表示</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -385,6 +348,37 @@
     <rPh sb="18" eb="20">
       <t>ジッコウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mo_security_group_createへ遷移</t>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セキュリティグループを取得し、繰り返しで表示
+・security_group_detailへ遷移</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>security_group_dashboard.html</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1373,21 +1367,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1392,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1407,7 +1401,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1416,7 +1410,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1425,7 +1419,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>1</v>
       </c>
@@ -1438,20 +1432,20 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="25"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2"/>
@@ -1460,7 +1454,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1498,7 +1492,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1515,179 +1509,179 @@
       <c r="F10" s="31"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>8</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>12</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1706,7 +1700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -1722,10 +1716,10 @@
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1741,15 +1735,15 @@
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>11</v>
@@ -1761,45 +1755,45 @@
       <c r="F24" s="31"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1810,7 +1804,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -1821,7 +1815,7 @@
       <c r="F28" s="31"/>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>

--- a/docs/画面項目定義書/security_group/security_group_dashboard.xlsx
+++ b/docs/画面項目定義書/security_group/security_group_dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\security_group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8FE2E8-DE96-40A7-ABD8-74DDDA29A922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84FDB48-3F03-4410-ACB6-685B355AE3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>日本工学院</t>
   </si>
@@ -379,6 +379,16 @@
   </si>
   <si>
     <t>security_group_dashboard.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>押下時、security_group_detailへ遷移</t>
+    <rPh sb="0" eb="3">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1367,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1557,7 +1567,9 @@
         <v>28</v>
       </c>
       <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="G13" s="41" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
